--- a/biology/Biochimie/Alfred_Gottschalk/Alfred_Gottschalk.xlsx
+++ b/biology/Biochimie/Alfred_Gottschalk/Alfred_Gottschalk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Gottschalk (22 avril 1894 - 4 octobre 1973) est un biochimiste allemand connu dans la recherche sur les glycoprotéines. Au cours de sa carrière, il a écrit 216 articles de recherche et critiques, et quatre livres.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gottschalk est né à Aix-la-Chapelle, le troisième de quatre enfants de Benjamin et Rosa Gottschalk. Il choisit d'étudier la médecine, à partir de 1912, et fréquente les universités de Munich, Fribourg-en-Brisgau et Bonn. La Première Guerre mondiale interrompt ses études, mais il les achève en 1920 et obtient son diplôme de médecine à l'Université de Bonn. Il a une expérience de travail clinique dans les facultés de médecine de Francfort-sur-le-Main et de Wurtzbourg et suit des études de physiologie - biochimie à Bonn, qui conduisent à ses premières publications, à un prix de l'Université de Madrid et à une invitation à travailler à l'Institut Kaiser Wilhelm de thérapie expérimentale. et biochimie avec Carl Neuberg.
 En 1923, il épouse Lisbeth Berta Orgler ; ensemble, ils ont un fils. Ils se séparent en 1950.
@@ -519,7 +533,7 @@
 Au Walter and Eliza Hall Institute, Gottschalk collabore avec Frank Macfarlane Burnet. Ils découvrent la neuraminidase. Il est élu membre de l'Académie australienne des sciences en 1954.
 À sa retraite en 1959, il est invité par Frank Fenner à faire des recherches à la John Curtin School of Medical Research de l'Université nationale australienne. Il quitte Canberra pour l'Allemagne en 1963, où il est nommé professeur invité à l'Institut Max Planck de recherche sur les virus à Tübingen. Il poursuit des recherches actives et pour ses contributions à la science est élu membre de l'Association américaine pour l'avancement des sciences en 1967 et reçoit un doctorat honorifique de l'Université de Münster (MD) en 1969.
 Il est décédé à Tübingen le 4 octobre 1973.
-La médaille Gottschalk pour la recherche médicale décernée par l'Académie australienne des sciences est nommée en son honneur[1],[2].
+La médaille Gottschalk pour la recherche médicale décernée par l'Académie australienne des sciences est nommée en son honneur,.
 </t>
         </is>
       </c>
